--- a/excel/Data.xlsx
+++ b/excel/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Credential" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t xml:space="preserve">thiyaguadmin </t>
   </si>
@@ -39,12 +39,6 @@
     <t>one</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>zero</t>
-  </si>
-  <si>
     <t>Melbourne</t>
   </si>
   <si>
@@ -109,6 +103,36 @@
   </si>
   <si>
     <t>Phone number</t>
+  </si>
+  <si>
+    <t>2 - Two</t>
+  </si>
+  <si>
+    <t>Hotels </t>
+  </si>
+  <si>
+    <t>Room Type</t>
+  </si>
+  <si>
+    <t>Number of Rooms</t>
+  </si>
+  <si>
+    <t>Check In Date</t>
+  </si>
+  <si>
+    <t>Check Out Date</t>
+  </si>
+  <si>
+    <t>Adults per Room</t>
+  </si>
+  <si>
+    <t>Children per Room</t>
+  </si>
+  <si>
+    <t>0 - None</t>
+  </si>
+  <si>
+    <t>3 - Three</t>
   </si>
 </sst>
 </file>
@@ -152,10 +176,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,84 +517,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>46045</v>
+      </c>
+      <c r="F2" s="1">
+        <v>46046</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="E3" s="1">
         <v>46045</v>
       </c>
-      <c r="B5" s="1">
+      <c r="F3" s="1">
         <v>46045</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>46046</v>
-      </c>
-      <c r="B6" s="1">
-        <v>46045</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -578,7 +624,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -597,34 +643,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -635,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <v>46046</v>
@@ -644,16 +690,16 @@
         <v>46047</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2">
         <v>3423454345</v>
@@ -661,13 +707,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1">
         <v>46046</v>
@@ -676,16 +722,16 @@
         <v>46047</v>
       </c>
       <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
         <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
       </c>
       <c r="J3">
         <v>2753498766</v>
